--- a/biology/Biochimie/1-Lysophosphatidylcholine/1-Lysophosphatidylcholine.xlsx
+++ b/biology/Biochimie/1-Lysophosphatidylcholine/1-Lysophosphatidylcholine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une 1-lysophosphatidylcholine (1-lysoPC) ou lysolécithine, est une biomolécule dérivée d'une phosphatidylcholine par hydrolyse d'un résidu d'acide gras en position 1 sur le glycérol ; cette hydrolyse est généralement le fait d'une phospholipase A1. Ils constituent une étape de la biosynthèse des phosphatidylcholines et sont des sous-produits de plusieurs voies métaboliques participant à la lipogenèse dans les cellules.
 La nomenclature à leur sujet n'est pas fixée et, à travers la littérature les concernant, les 1-lysoPC peuvent également être appelées 2-acylglycéro-3-phosphocholine, 1-lyso-2-acyl-sn-glycéro-3-phosphocholine, β-lysophosphatidylcholine, 2-acylglycérophosphocholine, L-1-lysolécithine, ou encore 1-lécithine.
 Les 1-lysophosphatidylcholines sont structurellement semblables aux 2-lysophosphatidylcholines à partir desquelles elles se forment spontanément par transfert d'un groupe acyle du carbone 1 au carbone 2 du résidu glycérol, ces deux isomères étant en équilibre :
-L'équilibre de 90 % de 2-lysoPC et 10 % de 1-lysoPC est atteint avec une demi-vie d'environ 10 minutes aux conditions physiologiques[1] et d'environ une heure aux conditions de laboratoire[2].
+L'équilibre de 90 % de 2-lysoPC et 10 % de 1-lysoPC est atteint avec une demi-vie d'environ 10 minutes aux conditions physiologiques et d'environ une heure aux conditions de laboratoire.
 Le taux d'isomérisation est le plus faible à pH 4-5 ; une enzyme, la lysolécithine acylmutase (EC 5.4.1.1), a été découverte chez Penicillium notatum : elle catalyse cette isomérisation aux pH acides.
 </t>
         </is>
